--- a/individual_results/avey/123.xlsx
+++ b/individual_results/avey/123.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
         <v>0.2</v>
@@ -516,7 +516,7 @@
         <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F2" t="n">
         <v>0.5</v>
@@ -537,7 +537,7 @@
         <v>0.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -562,7 +562,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
         <v>0.5</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
         <v>0.2857142857142858</v>
@@ -608,7 +608,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="n">
         <v>0.6666666666666666</v>
@@ -629,7 +629,7 @@
         <v>0.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4" t="n">
         <v>0.6666666666666666</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
         <v>0.3846153846153846</v>
@@ -654,7 +654,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F5" t="n">
         <v>0.8333333333333334</v>
@@ -675,7 +675,7 @@
         <v>0.625</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="n">
         <v>0.5555555555555556</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.34753068574288</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="C6" t="n">
         <v>0.8262346571285599</v>
@@ -700,7 +700,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9639404333166532</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="F6" t="n">
         <v>0.944847956559586</v>
@@ -721,7 +721,7 @@
         <v>0.5049211793563422</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="M6" t="n">
         <v>0.8262346571285599</v>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>2.5</v>
